--- a/Meta2_input_file_v2.xlsx
+++ b/Meta2_input_file_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm19ljc\Documents\GitHub\MS-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92464E25-485B-46C4-ACC4-07E9745FECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7137D4-5C8F-4A4D-9BF4-A91B1FEFFC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1875" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -509,120 +515,125 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>13597.42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>13151.97</v>
+        <v>13597.42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>13151.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>12559.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
